--- a/trunk/dlx-tools-win32/btb_test.xlsx
+++ b/trunk/dlx-tools-win32/btb_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>DLX btb</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>DLX no btb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predizioni OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predizioni Errate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentuale Pred Ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -97,9 +109,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -145,13 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -421,11 +431,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="612095208"/>
-        <c:axId val="501291832"/>
+        <c:axId val="534173736"/>
+        <c:axId val="534174872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="612095208"/>
+        <c:axId val="534173736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,14 +460,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501291832"/>
+        <c:crossAx val="534174872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501291832"/>
+        <c:axId val="534174872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +493,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="612095208"/>
+        <c:crossAx val="534173736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -724,11 +734,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="501828712"/>
-        <c:axId val="545283368"/>
+        <c:axId val="546520744"/>
+        <c:axId val="546529096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501828712"/>
+        <c:axId val="546520744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,14 +763,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545283368"/>
+        <c:crossAx val="546529096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545283368"/>
+        <c:axId val="546529096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +797,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501828712"/>
+        <c:crossAx val="546520744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -808,6 +818,100 @@
       <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="it-IT"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentuale Pred Ok</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="546829368"/>
+        <c:axId val="546828792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="546829368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="546828792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="546828792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="546829368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -873,6 +977,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>8468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>753533</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1202,10 +1336,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1500,6 +1634,73 @@
       </c>
       <c r="E23">
         <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>191</v>
+      </c>
+      <c r="C30">
+        <v>186</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1713,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
